--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10921"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/posyandu/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123C34BA-E17D-0E48-AB55-F0DF4E4E06C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FDB41F-3FC2-AB48-AABA-651426D560A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="61">
   <si>
     <t>module</t>
   </si>
@@ -39,9 +39,6 @@
     <t>permission</t>
   </si>
   <si>
-    <t>superadmin, administrator</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -193,6 +190,24 @@
   </si>
   <si>
     <t>settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>admin_opd</t>
+  </si>
+  <si>
+    <t>admin_posyandu</t>
+  </si>
+  <si>
+    <t>admin_desa</t>
+  </si>
+  <si>
+    <t>superadmin, admin_posyandu, admin_opd, admin_desa</t>
+  </si>
+  <si>
+    <t>superadmin, admin_posyandu</t>
   </si>
 </sst>
 </file>
@@ -575,8 +590,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -591,70 +606,70 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -669,8 +684,8 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -691,57 +706,57 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="H2" s="5" t="b">
         <v>1</v>
@@ -750,30 +765,30 @@
         <v>0</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" s="5" t="b">
         <v>1</v>
@@ -782,30 +797,30 @@
         <v>0</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" s="5" t="b">
         <v>0</v>
@@ -814,30 +829,30 @@
         <v>1</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H5" s="5" t="b">
         <v>0</v>
@@ -846,33 +861,33 @@
         <v>0</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="5" t="b">
         <v>1</v>
@@ -882,30 +897,30 @@
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="H7" s="5" t="b">
         <v>1</v>
@@ -914,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -948,73 +963,73 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1027,10 +1042,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1049,18 +1064,34 @@
     </row>
     <row r="2" spans="1:2" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1076,14 +1107,14 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C7"/>
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1">
@@ -1099,68 +1130,68 @@
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1176,14 +1207,14 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1203,86 +1234,86 @@
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/posyandu/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FDB41F-3FC2-AB48-AABA-651426D560A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B683F7D-FF92-5846-98AF-DE45025563DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="60">
   <si>
     <t>module</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>admin_opd</t>
@@ -590,7 +587,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -685,7 +682,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -911,7 +908,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>28</v>
@@ -1075,7 +1072,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1083,7 +1080,7 @@
         <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1091,7 +1088,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1136,7 +1133,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
@@ -1147,7 +1144,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1">
@@ -1158,7 +1155,7 @@
         <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1">
@@ -1169,7 +1166,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1">
@@ -1180,7 +1177,7 @@
         <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1">
@@ -1191,7 +1188,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1206,8 +1203,8 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1240,7 +1237,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -1254,7 +1251,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
@@ -1268,7 +1265,7 @@
         <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
@@ -1282,7 +1279,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
@@ -1296,7 +1293,7 @@
         <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
@@ -1310,7 +1307,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/posyandu/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B683F7D-FF92-5846-98AF-DE45025563DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2612C2DC-BEC7-BE43-ADC4-FAA18A627A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
   <si>
     <t>module</t>
   </si>
@@ -57,9 +57,6 @@
     <t>view, create, show, update, delete, restore, destroy, search</t>
   </si>
   <si>
-    <t>view, show</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>token</t>
   </si>
   <si>
-    <t>south_america</t>
-  </si>
-  <si>
     <t>Laporan</t>
   </si>
   <si>
@@ -156,15 +150,6 @@
     <t>Layanan</t>
   </si>
   <si>
-    <t>Pengaduan</t>
-  </si>
-  <si>
-    <t>Sub Layanan</t>
-  </si>
-  <si>
-    <t>Pengaturan</t>
-  </si>
-  <si>
     <t>posyandu-submission</t>
   </si>
   <si>
@@ -180,18 +165,9 @@
     <t>posyandu-report</t>
   </si>
   <si>
-    <t>setting</t>
-  </si>
-  <si>
-    <t>service/:service/subservice</t>
-  </si>
-  <si>
     <t>submission</t>
   </si>
   <si>
-    <t>settings</t>
-  </si>
-  <si>
     <t>admin_opd</t>
   </si>
   <si>
@@ -205,6 +181,45 @@
   </si>
   <si>
     <t>superadmin, admin_posyandu</t>
+  </si>
+  <si>
+    <t>Aktifitas</t>
+  </si>
+  <si>
+    <t>posyandu-activity</t>
+  </si>
+  <si>
+    <t>posyandu-beneficiary</t>
+  </si>
+  <si>
+    <t>Penerima</t>
+  </si>
+  <si>
+    <t>Kategori</t>
+  </si>
+  <si>
+    <t>posyandu-category</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Pendanaan</t>
+  </si>
+  <si>
+    <t>posyandu-funding</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>activity/:activity/funding</t>
+  </si>
+  <si>
+    <t>view, show, update, delete, restore, destroy, search</t>
   </si>
 </sst>
 </file>
@@ -603,70 +618,70 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -679,22 +694,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.1640625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -703,57 +718,57 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="H2" s="5" t="b">
         <v>1</v>
@@ -762,30 +777,30 @@
         <v>0</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H3" s="5" t="b">
         <v>1</v>
@@ -794,139 +809,167 @@
         <v>0</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H4" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I4" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H5" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="K5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2"/>
       <c r="K6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="5" t="b">
+      <c r="H8" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="I7" s="5" t="b">
+      <c r="I8" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>24</v>
+      <c r="K8" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -939,10 +982,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -965,10 +1008,10 @@
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -976,43 +1019,43 @@
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -1020,13 +1063,24 @@
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1042,7 +1096,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1061,7 +1115,7 @@
     </row>
     <row r="2" spans="1:2" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1069,26 +1123,26 @@
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1101,10 +1155,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1127,68 +1181,79 @@
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1204,7 +1269,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1231,13 +1296,13 @@
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -1245,13 +1310,13 @@
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
@@ -1259,13 +1324,13 @@
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
@@ -1273,13 +1338,13 @@
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
@@ -1287,13 +1352,13 @@
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
@@ -1301,13 +1366,13 @@
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/posyandu/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2612C2DC-BEC7-BE43-ADC4-FAA18A627A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2474C2FB-FB7D-E249-A671-ACAEBACF4EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="62">
   <si>
     <t>module</t>
   </si>
@@ -150,24 +150,12 @@
     <t>Layanan</t>
   </si>
   <si>
-    <t>posyandu-submission</t>
-  </si>
-  <si>
     <t>posyandu-service</t>
   </si>
   <si>
-    <t>posyandu-subservice</t>
-  </si>
-  <si>
-    <t>posyandu-setting</t>
-  </si>
-  <si>
     <t>posyandu-report</t>
   </si>
   <si>
-    <t>submission</t>
-  </si>
-  <si>
     <t>admin_opd</t>
   </si>
   <si>
@@ -220,6 +208,9 @@
   </si>
   <si>
     <t>view, show, update, delete, restore, destroy, search</t>
+  </si>
+  <si>
+    <t>beneficiary</t>
   </si>
 </sst>
 </file>
@@ -709,7 +700,7 @@
     <col min="6" max="6" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.1640625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -785,13 +776,13 @@
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
@@ -800,7 +791,7 @@
         <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H3" s="5" t="b">
         <v>1</v>
@@ -817,13 +808,13 @@
         <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -832,7 +823,7 @@
         <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H4" s="5" t="b">
         <v>0</v>
@@ -840,6 +831,9 @@
       <c r="I4" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="J4" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="K4" s="5" t="s">
         <v>23</v>
       </c>
@@ -849,13 +843,13 @@
         <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -864,7 +858,7 @@
         <v>36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H5" s="5" t="b">
         <v>1</v>
@@ -881,28 +875,28 @@
         <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="H6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" s="5" t="b">
-        <v>1</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>23</v>
@@ -913,13 +907,13 @@
         <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -928,7 +922,7 @@
         <v>36</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H7" s="5" t="b">
         <v>0</v>
@@ -945,28 +939,28 @@
         <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="H8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" s="5" t="b">
-        <v>0</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>23</v>
@@ -984,8 +978,8 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1022,10 +1016,10 @@
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1">
@@ -1033,10 +1027,10 @@
         <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1">
@@ -1044,10 +1038,10 @@
         <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1">
@@ -1066,7 +1060,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -1077,7 +1071,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -1126,7 +1120,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1134,7 +1128,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1142,7 +1136,7 @@
         <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1158,7 +1152,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1187,7 +1181,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
@@ -1195,10 +1189,10 @@
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1">
@@ -1206,10 +1200,10 @@
         <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1">
@@ -1217,10 +1211,10 @@
         <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1">
@@ -1231,7 +1225,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1">
@@ -1239,10 +1233,10 @@
         <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1250,10 +1244,10 @@
         <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1266,10 +1260,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1302,7 +1296,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -1313,10 +1307,10 @@
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
@@ -1327,10 +1321,10 @@
         <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
@@ -1341,10 +1335,10 @@
         <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
@@ -1355,10 +1349,10 @@
         <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
@@ -1369,12 +1363,26 @@
         <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/posyandu/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2474C2FB-FB7D-E249-A671-ACAEBACF4EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82097457-96F7-4C4C-8318-9E8FB75EDBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="69">
   <si>
     <t>module</t>
   </si>
@@ -99,9 +99,6 @@
     <t>true</t>
   </si>
   <si>
-    <t>token</t>
-  </si>
-  <si>
     <t>Laporan</t>
   </si>
   <si>
@@ -211,6 +208,30 @@
   </si>
   <si>
     <t>beneficiary</t>
+  </si>
+  <si>
+    <t>Dokumen</t>
+  </si>
+  <si>
+    <t>posyandu-document</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>calendar_month</t>
+  </si>
+  <si>
+    <t>attach_money</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>build_circle</t>
+  </si>
+  <si>
+    <t>article</t>
   </si>
 </sst>
 </file>
@@ -593,8 +614,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -618,13 +639,13 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>14</v>
@@ -633,34 +654,34 @@
         <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>23</v>
@@ -672,7 +693,7 @@
         <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -685,10 +706,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D8"/>
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -741,7 +762,7 @@
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>20</v>
@@ -750,13 +771,13 @@
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>22</v>
@@ -773,25 +794,25 @@
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" s="5" t="b">
         <v>1</v>
@@ -805,25 +826,25 @@
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H4" s="5" t="b">
         <v>0</v>
@@ -832,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>23</v>
@@ -840,25 +861,25 @@
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" s="5" t="b">
         <v>1</v>
@@ -872,25 +893,25 @@
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="H6" s="5" t="b">
         <v>1</v>
@@ -904,25 +925,25 @@
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H7" s="5" t="b">
         <v>0</v>
@@ -936,25 +957,25 @@
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H8" s="5" t="b">
         <v>0</v>
@@ -963,6 +984,38 @@
         <v>1</v>
       </c>
       <c r="K8" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="18" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -976,10 +1029,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1002,10 +1055,10 @@
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1013,43 +1066,43 @@
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -1057,10 +1110,10 @@
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -1068,12 +1121,23 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1109,7 +1173,7 @@
     </row>
     <row r="2" spans="1:2" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1117,26 +1181,26 @@
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1149,10 +1213,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1175,79 +1239,90 @@
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1260,10 +1335,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1290,13 +1365,13 @@
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -1304,13 +1379,13 @@
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
@@ -1318,13 +1393,13 @@
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
@@ -1332,13 +1407,13 @@
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
@@ -1346,13 +1421,13 @@
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
@@ -1360,13 +1435,13 @@
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
@@ -1374,15 +1449,29 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/posyandu/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82097457-96F7-4C4C-8318-9E8FB75EDBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91CE148-8071-B446-AF64-3AF8C289F862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="80">
   <si>
     <t>module</t>
   </si>
@@ -162,15 +162,9 @@
     <t>admin_desa</t>
   </si>
   <si>
-    <t>superadmin, admin_posyandu, admin_opd, admin_desa</t>
-  </si>
-  <si>
     <t>superadmin, admin_posyandu</t>
   </si>
   <si>
-    <t>Aktifitas</t>
-  </si>
-  <si>
     <t>posyandu-activity</t>
   </si>
   <si>
@@ -232,6 +226,45 @@
   </si>
   <si>
     <t>article</t>
+  </si>
+  <si>
+    <t>Kegiatan</t>
+  </si>
+  <si>
+    <t>Alasan</t>
+  </si>
+  <si>
+    <t>posyandu-premise</t>
+  </si>
+  <si>
+    <t>feedback</t>
+  </si>
+  <si>
+    <t>activity/:activity/premise</t>
+  </si>
+  <si>
+    <t>posyandu-recipient</t>
+  </si>
+  <si>
+    <t>activity/:activity/recipient</t>
+  </si>
+  <si>
+    <t>Pengaduan</t>
+  </si>
+  <si>
+    <t>posyandu-complaint</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>admin_camat</t>
+  </si>
+  <si>
+    <t>superadmin, admin_posyandu, admin_opd, admin_camat, admin_desa</t>
   </si>
 </sst>
 </file>
@@ -706,10 +739,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+      <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -797,22 +830,22 @@
         <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="H3" s="5" t="b">
         <v>1</v>
@@ -829,31 +862,28 @@
         <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="H4" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="5" t="b">
         <v>0</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>23</v>
@@ -864,28 +894,31 @@
         <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H5" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="5" t="b">
         <v>0</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>23</v>
@@ -896,28 +929,31 @@
         <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="H6" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="5" t="b">
         <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>23</v>
@@ -928,28 +964,31 @@
         <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="H7" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I7" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>23</v>
@@ -960,28 +999,28 @@
         <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H8" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>23</v>
@@ -992,30 +1031,126 @@
         <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="18" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="18" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5" t="b">
+      <c r="H12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1029,10 +1164,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="A2" sqref="A2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1042,7 +1177,7 @@
     <col min="3" max="3" width="62.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1053,7 +1188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -1064,59 +1199,59 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1124,10 +1259,10 @@
         <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1135,9 +1270,42 @@
         <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1151,10 +1319,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1163,7 +1331,7 @@
     <col min="2" max="2" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,7 +1339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" customHeight="1">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -1179,27 +1347,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" customHeight="1">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>42</v>
+      <c r="B3" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>43</v>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1213,20 +1389,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1237,7 +1413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -1245,62 +1421,62 @@
         <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1308,10 +1484,10 @@
         <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1319,10 +1495,43 @@
         <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1335,21 +1544,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1363,7 +1572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -1371,77 +1580,77 @@
         <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
@@ -1452,10 +1661,10 @@
         <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>4</v>
@@ -1466,12 +1675,54 @@
         <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/posyandu/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91CE148-8071-B446-AF64-3AF8C289F862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D280A63-470E-114E-9BFC-8B467DAE0956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="81">
   <si>
     <t>module</t>
   </si>
@@ -261,10 +261,13 @@
     <t>problem</t>
   </si>
   <si>
-    <t>admin_camat</t>
-  </si>
-  <si>
-    <t>superadmin, admin_posyandu, admin_opd, admin_camat, admin_desa</t>
+    <t>admin_kecamatan</t>
+  </si>
+  <si>
+    <t>admin_kelurahan</t>
+  </si>
+  <si>
+    <t>superadmin, admin_posyandu, admin_opd, admin_kecamatan, admin_desa</t>
   </si>
 </sst>
 </file>
@@ -647,7 +650,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -742,7 +745,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D12"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1319,10 +1322,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1376,6 +1379,14 @@
         <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1392,14 +1403,14 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1421,7 +1432,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1432,7 +1443,7 @@
         <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1443,7 +1454,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1454,7 +1465,7 @@
         <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1465,7 +1476,7 @@
         <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1476,7 +1487,7 @@
         <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1487,7 +1498,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1498,7 +1509,7 @@
         <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1547,14 +1558,14 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1580,7 +1591,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -1594,7 +1605,7 @@
         <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
@@ -1608,7 +1619,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
@@ -1622,7 +1633,7 @@
         <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
@@ -1636,7 +1647,7 @@
         <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
@@ -1650,7 +1661,7 @@
         <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
@@ -1664,7 +1675,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>4</v>
@@ -1678,7 +1689,7 @@
         <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>4</v>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/posyandu/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D280A63-470E-114E-9BFC-8B467DAE0956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2270BC4E-6A18-A84B-A228-3C70B41EE8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="84">
   <si>
     <t>module</t>
   </si>
@@ -268,6 +268,15 @@
   </si>
   <si>
     <t>superadmin, admin_posyandu, admin_opd, admin_kecamatan, admin_desa</t>
+  </si>
+  <si>
+    <t>Indikator</t>
+  </si>
+  <si>
+    <t>posyandu-indicator</t>
+  </si>
+  <si>
+    <t>service/:service/indicator</t>
   </si>
 </sst>
 </file>
@@ -650,8 +659,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -742,10 +751,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D2" sqref="D2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1098,28 +1107,28 @@
         <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="H11" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>23</v>
@@ -1130,22 +1139,22 @@
         <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H12" s="5" t="b">
         <v>0</v>
@@ -1154,6 +1163,38 @@
         <v>1</v>
       </c>
       <c r="K12" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1167,10 +1208,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B12"/>
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1295,7 +1336,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -1306,9 +1347,20 @@
         <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1324,7 +1376,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1400,10 +1452,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1528,7 +1580,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>45</v>
@@ -1539,9 +1591,20 @@
         <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1555,10 +1618,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1714,7 +1777,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>45</v>
@@ -1728,12 +1791,26 @@
         <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/posyandu/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2270BC4E-6A18-A84B-A228-3C70B41EE8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF62B83-B2F5-9547-AF44-08D5AF8F42D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" r:id="rId1"/>
@@ -659,7 +659,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -753,8 +753,8 @@
   </sheetPr>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/posyandu/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF62B83-B2F5-9547-AF44-08D5AF8F42D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30195CA-A268-6A40-A773-125057ABEED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" r:id="rId1"/>
@@ -753,8 +753,8 @@
   </sheetPr>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1210,8 +1210,8 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1377,7 +1377,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/posyandu/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30195CA-A268-6A40-A773-125057ABEED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9C06C9-1849-C44A-B798-805A882A6619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="83">
   <si>
     <t>module</t>
   </si>
@@ -262,9 +262,6 @@
   </si>
   <si>
     <t>admin_kecamatan</t>
-  </si>
-  <si>
-    <t>admin_kelurahan</t>
   </si>
   <si>
     <t>superadmin, admin_posyandu, admin_opd, admin_kecamatan, admin_desa</t>
@@ -283,7 +280,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +300,35 @@
       <color rgb="FF000000"/>
       <name val="Fira Code Regular"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Fira Code Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Fira Code Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Fira Code Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Fira Code Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Fira Code Regular"/>
     </font>
   </fonts>
   <fills count="2">
@@ -332,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -351,6 +377,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1107,13 +1148,13 @@
         <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>65</v>
@@ -1122,7 +1163,7 @@
         <v>35</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H11" s="5" t="b">
         <v>0</v>
@@ -1210,7 +1251,7 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -1336,7 +1377,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -1374,71 +1415,63 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1455,156 +1488,156 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>80</v>
+      <c r="C2" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>80</v>
+      <c r="C3" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>80</v>
+      <c r="C4" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>80</v>
+      <c r="C5" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>80</v>
+      <c r="C6" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>80</v>
+      <c r="C7" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>80</v>
+      <c r="C8" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>80</v>
+      <c r="C9" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="A11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="8" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1654,7 +1687,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -1668,7 +1701,7 @@
         <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
@@ -1682,7 +1715,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
@@ -1696,7 +1729,7 @@
         <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
@@ -1710,7 +1743,7 @@
         <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
@@ -1724,7 +1757,7 @@
         <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
@@ -1738,7 +1771,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>4</v>
@@ -1752,7 +1785,7 @@
         <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>4</v>
@@ -1777,7 +1810,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>45</v>
